--- a/data/trans_orig/Q61A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q61A-Habitat-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según el número de meses que lleva en paro</t>
+          <t>Número medio de meses que lleva en paro</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,25; 5,58</t>
+          <t>3,23; 5,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,83; 19,21</t>
+          <t>10,75; 18,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,91; 23,94</t>
+          <t>15,46; 23,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,09; 16,42</t>
+          <t>7,21; 16,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,91; 7,85</t>
+          <t>4,93; 7,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,88; 22,25</t>
+          <t>14,07; 22,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>14,79; 24,59</t>
+          <t>14,73; 23,92</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>14,85; 24,06</t>
+          <t>15,08; 24,07</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,48; 6,43</t>
+          <t>4,45; 6,32</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>12,75; 18,5</t>
+          <t>12,76; 18,49</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>16,01; 21,92</t>
+          <t>16,04; 22,15</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>12,8; 20,03</t>
+          <t>12,91; 19,54</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,73; 14,85</t>
+          <t>4,89; 17,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,64; 17,39</t>
+          <t>12,69; 17,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,66; 23,97</t>
+          <t>17,78; 23,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,93; 26,14</t>
+          <t>13,28; 26,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,31; 20,23</t>
+          <t>7,31; 22,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>13,35; 18,2</t>
+          <t>13,53; 18,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>19,71; 28,86</t>
+          <t>19,71; 28,62</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,19; 27,57</t>
+          <t>16,24; 28,46</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,72; 14,84</t>
+          <t>6,64; 15,83</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>13,58; 16,85</t>
+          <t>13,63; 16,89</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>19,44; 24,55</t>
+          <t>19,51; 25,12</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>16,15; 24,28</t>
+          <t>16,27; 24,23</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,93; 9,64</t>
+          <t>4,91; 9,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,18; 16,81</t>
+          <t>12,06; 17,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,72; 19,66</t>
+          <t>13,92; 19,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,54; 29,21</t>
+          <t>15,96; 28,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,11; 7,97</t>
+          <t>4,11; 8,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,61; 20,87</t>
+          <t>13,69; 21,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>15,76; 23,96</t>
+          <t>15,94; 24,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>21,84; 42,63</t>
+          <t>22,19; 42,64</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,9; 8,27</t>
+          <t>4,95; 8,13</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>13,31; 17,43</t>
+          <t>13,29; 17,68</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>15,48; 20,51</t>
+          <t>15,45; 20,32</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>20,39; 32,55</t>
+          <t>20,43; 33,45</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,24; 7,55</t>
+          <t>4,31; 7,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,13; 22,68</t>
+          <t>16,06; 22,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>18,53; 24,68</t>
+          <t>18,62; 24,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>22,35; 40,78</t>
+          <t>22,32; 41,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,0; 12,69</t>
+          <t>4,83; 13,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,72; 32,77</t>
+          <t>19,01; 32,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>24,36; 33,25</t>
+          <t>24,11; 33,34</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,87; 34,15</t>
+          <t>19,93; 33,34</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,94; 8,75</t>
+          <t>4,96; 8,67</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>18,1; 25,44</t>
+          <t>18,41; 25,2</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>22,34; 27,75</t>
+          <t>22,17; 27,7</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>22,58; 34,94</t>
+          <t>22,42; 34,68</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,02; 8,57</t>
+          <t>5,02; 8,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13,76; 16,62</t>
+          <t>13,74; 16,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>18,09; 21,41</t>
+          <t>18,12; 21,33</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,6; 25,03</t>
+          <t>17,54; 25,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,23; 11,24</t>
+          <t>6,37; 11,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>16,42; 20,71</t>
+          <t>16,38; 20,92</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>20,77; 25,34</t>
+          <t>20,54; 25,21</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>20,33; 26,78</t>
+          <t>20,5; 27,04</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,91; 8,75</t>
+          <t>5,95; 8,68</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>15,23; 17,64</t>
+          <t>15,28; 17,63</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>19,72; 22,55</t>
+          <t>19,8; 22,59</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>19,69; 24,89</t>
+          <t>19,92; 24,68</t>
         </is>
       </c>
     </row>
